--- a/biology/Zoologie/Cerambyx_cerdo/Cerambyx_cerdo.xlsx
+++ b/biology/Zoologie/Cerambyx_cerdo/Cerambyx_cerdo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Capricorne du chêne (Cerambyx cerdo), Grand capricorne ou Capricorne ouvrier est une espèce de coléoptères de la famille des Cerambycidae. Cette espèce est protégée, la larve se développe dans les vieux chênes.
 </t>
@@ -511,12 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cerambyx cerdo est de couleur brun-sombre à noire avec l'extrémité des élytres brun-rouge. Vertex franchement rugueux avec des stries transversales. Les antennes dépassent l’apex des élytres de quatre articles chez le mâle  et elles ne dépassent pas l’apex chez la femelle. Le pronotum est spiculé avec de fortes rides irrégulières. Les élytres sont luisants, finement granuleux, les rides et les granules s’estompent vers l’arrière.
-Taille
-Les individus adultes peuvent atteindre 24 à 62 mm[1], mais en moyenne la taille est comprise entre 24 à 53 mm[2].
-La larve peut atteindre 65 à 90 mm[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerambyx cerdo est de couleur brun-sombre à noire avec l'extrémité des élytres brun-rouge. Vertex franchement rugueux avec des stries transversales. Les antennes dépassent l’apex des élytres de quatre articles chez le mâle  et elles ne dépassent pas l’apex chez la femelle. Le pronotum est spiculé avec de fortes rides irrégulières. Les élytres sont luisants, finement granuleux, les rides et les granules s’estompent vers l’arrière.
+</t>
         </is>
       </c>
     </row>
@@ -541,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Éthologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La forme adulte se rencontre de mai à août sur le tronc des vieux chênes, plus rarement de vieux châtaigniers. Cet animal crépusculaire et nocturne peut néanmoins être observé dans la journée sur des fruits mûrs. Les imagos sont le plus souvent grégaires et ne s’éloignent que rarement de l’arbre qui les a vus naître. Leur maximum d’activité est crépusculaire lors de la recherche d’une femelle. Les mâles se battent volontiers pour leurs possessions et il est fréquent de rencontrer des individus vivants mutilés d’un fragment d’antenne ou d’une patte. Les formes adultes se nourrissent de sève ou de fruits mûrs mais ne survivent pas au-delà d’un mois. Comme de nombreux coléoptères de la famille des Cerambycidae, si l’adulte se sent menacé, il stridule, en émettant un son très caractéristique, qu’il produit en raclant la tête contre le pronotum. Il peut également voler sur de courtes distances, le corps à la verticale et non à l'horizontale.
-La forme larvaire évolue sur 3 à 5 ans essentiellement sur différentes espèces de chênes mais aussi sur le châtaignier. Elle vit d'abord sur l'écorce, puis sur l'aubier et le phloème, pour creuser ensuite le bois. Elle y trace des galeries qui peuvent faire le diamètre d'un doigt. Elle peut atteindre de 7 à 9 cm[2].
-La nymphe apparaît durant l'été et prend la forme adulte vers septembre, qu'elle conserve jusqu'à l'été suivant en consommant les matières grasses accumulées par la larve.</t>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les individus adultes peuvent atteindre 24 à 62 mm, mais en moyenne la taille est comprise entre 24 à 53 mm.
+La larve peut atteindre 65 à 90 mm.</t>
         </is>
       </c>
     </row>
@@ -573,13 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On le trouve dans presque toute l'Europe et au nord de l'Afrique.
-En France il est commun dans le Midi (où il peut atteindre une grande taille) et le Centre, beaucoup plus rare dans le Nord.</t>
+          <t>Éthologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La forme adulte se rencontre de mai à août sur le tronc des vieux chênes, plus rarement de vieux châtaigniers. Cet animal crépusculaire et nocturne peut néanmoins être observé dans la journée sur des fruits mûrs. Les imagos sont le plus souvent grégaires et ne s’éloignent que rarement de l’arbre qui les a vus naître. Leur maximum d’activité est crépusculaire lors de la recherche d’une femelle. Les mâles se battent volontiers pour leurs possessions et il est fréquent de rencontrer des individus vivants mutilés d’un fragment d’antenne ou d’une patte. Les formes adultes se nourrissent de sève ou de fruits mûrs mais ne survivent pas au-delà d’un mois. Comme de nombreux coléoptères de la famille des Cerambycidae, si l’adulte se sent menacé, il stridule, en émettant un son très caractéristique, qu’il produit en raclant la tête contre le pronotum. Il peut également voler sur de courtes distances, le corps à la verticale et non à l'horizontale.
+La forme larvaire évolue sur 3 à 5 ans essentiellement sur différentes espèces de chênes mais aussi sur le châtaignier. Elle vit d'abord sur l'écorce, puis sur l'aubier et le phloème, pour creuser ensuite le bois. Elle y trace des galeries qui peuvent faire le diamètre d'un doigt. Elle peut atteindre de 7 à 9 cm.
+La nymphe apparaît durant l'été et prend la forme adulte vers septembre, qu'elle conserve jusqu'à l'été suivant en consommant les matières grasses accumulées par la larve.</t>
         </is>
       </c>
     </row>
@@ -604,12 +624,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On le trouve dans presque toute l'Europe et au nord de l'Afrique.
+En France il est commun dans le Midi (où il peut atteindre une grande taille) et le Centre, beaucoup plus rare dans le Nord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cerambyx_cerdo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerambyx_cerdo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au stade larvaire, le Grand Capricorne est strictement xylophage : il consomme le bois d’abord juste sous l’écorce puis plus au cœur de l’arbre. L’imago en revanche consomme de la sève et plus généralement des liquides sucrés comme le jus des fruits mûrs[3],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au stade larvaire, le Grand Capricorne est strictement xylophage : il consomme le bois d’abord juste sous l’écorce puis plus au cœur de l’arbre. L’imago en revanche consomme de la sève et plus généralement des liquides sucrés comme le jus des fruits mûrs,.
 </t>
         </is>
       </c>
